--- a/exercise_4/Szustak-175ICB2.xlsx
+++ b/exercise_4/Szustak-175ICB2.xlsx
@@ -448,110 +448,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZST</t>
+          <t>MGA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18.1</t>
+          <t>0.5500</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+0.56%</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
+          <t>+5.77%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HPS</t>
+          <t>BCI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.332</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-8.79%</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JJB</t>
+          <t>LKD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>11.70</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+1.67%</t>
+          <t>-1.68%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IFC</t>
+          <t>CLC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-2.19%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>206</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EMT</t>
+          <t>TOW</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.380</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+2.37%</t>
+          <t>-6.52%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -696,252 +688,252 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746516%2Cpremier-najwazniejszym-wyzwaniem-jest-teraz-epidemia.html</t>
+          <t>/aktualnosci/news%2C762168%2Cpis-prowadzi-rozmowy-dotyczace-zwiekszenia-liczebnosci-klubu-poselskiego</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746516%2Cpremier-najwazniejszym-wyzwaniem-jest-teraz-epidemia.html</t>
+          <t>/aktualnosci/news%2C762168%2Cpis-prowadzi-rozmowy-dotyczace-zwiekszenia-liczebnosci-klubu-poselskiego</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746749%2Crzecznik-rzadu-o-protestach-w-sprawie-aborcji-pewnego-rodzaju-rozwiazaniem</t>
+          <t>/aktualnosci/news%2C762294%2Cwedlug-financial-times-sporny-mechanizm-warunkowosci-moze-nigdy-nie-zostac</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746749%2Crzecznik-rzadu-o-protestach-w-sprawie-aborcji-pewnego-rodzaju-rozwiazaniem</t>
+          <t>/aktualnosci/news%2C762294%2Cwedlug-financial-times-sporny-mechanizm-warunkowosci-moze-nigdy-nie-zostac</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746651%2Csytuacja-w-warszawskich-szpitalach-jest-bardzo-trudna-20-proc-personelu-ma</t>
+          <t>/aktualnosci/news%2C762245%2Cmuller-w-koncu-tego-tygodniu-albo-na-poczatku-przyszlego-pokazemy-jak</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746651%2Csytuacja-w-warszawskich-szpitalach-jest-bardzo-trudna-20-proc-personelu-ma</t>
+          <t>/aktualnosci/news%2C762245%2Cmuller-w-koncu-tego-tygodniu-albo-na-poczatku-przyszlego-pokazemy-jak</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746366%2Cpadly-kolejne-rekordy-20-tys-156-nowych-zakazen-koronawirusem-i-301-zgonow</t>
+          <t>/aktualnosci/news%2C762286%2Cmarcin-ociepa-wnioskuje-do-komisji-etyki-o-ukaranie-poslanki-lewicy.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746366%2Cpadly-kolejne-rekordy-20-tys-156-nowych-zakazen-koronawirusem-i-301-zgonow</t>
+          <t>/aktualnosci/news%2C762286%2Cmarcin-ociepa-wnioskuje-do-komisji-etyki-o-ukaranie-poslanki-lewicy.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746333%2Catak-nozownika-w-nicei-dwie-ofiary-smiertelne.html</t>
+          <t>/aktualnosci/news%2C762308%2C10-139-nowych-zakazen-koronawirusem-najmniej-od-21-pazdziernika-zmarlo-540</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746333%2Catak-nozownika-w-nicei-dwie-ofiary-smiertelne.html</t>
+          <t>/aktualnosci/news%2C762308%2C10-139-nowych-zakazen-koronawirusem-najmniej-od-21-pazdziernika-zmarlo-540</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746266%2Cw-warszawie-kolejny-dzien-protestow-przeciwko-wyrokowi-tk-w-sprawie-aborcji</t>
+          <t>/aktualnosci/news%2C762222%2Cswiatowa-konferencja-internetowa-w-chinach-galeria-zdjec.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746266%2Cw-warszawie-kolejny-dzien-protestow-przeciwko-wyrokowi-tk-w-sprawie-aborcji</t>
+          <t>/aktualnosci/news%2C762222%2Cswiatowa-konferencja-internetowa-w-chinach-galeria-zdjec.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746778%2Cgowin-chce-aby-rds-wypracowala-wspolne-stanowisko-dotyczace-unikniecia</t>
+          <t>/aktualnosci/news%2C762321%2Cprzemyt-papierosow-w-ladunku-tafli-szkla.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746778%2Cgowin-chce-aby-rds-wypracowala-wspolne-stanowisko-dotyczace-unikniecia</t>
+          <t>/aktualnosci/news%2C762321%2Cprzemyt-papierosow-w-ladunku-tafli-szkla.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746771%2Cbialorus-zamknela-wjazd-na-granicy-z-polska-litwa-lotwa-i-ukraina.html</t>
+          <t>/aktualnosci/news%2C762274%2Cgruzin-z-zakazem-wjazdu-do-unii-europejskiej-udawal-belga-bo-chcial-dotrzec</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746771%2Cbialorus-zamknela-wjazd-na-granicy-z-polska-litwa-lotwa-i-ukraina.html</t>
+          <t>/aktualnosci/news%2C762274%2Cgruzin-z-zakazem-wjazdu-do-unii-europejskiej-udawal-belga-bo-chcial-dotrzec</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746727%2Cmalgorzata-jarosinska-jedynak-wiceministrem-w-mfipr.html</t>
+          <t>/aktualnosci/news%2C762255%2Cdo-8-grudnia-ma-byc-przedluzony-zakazu-lotow-miedzynarodowych-do-dziewieciu</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746727%2Cmalgorzata-jarosinska-jedynak-wiceministrem-w-mfipr.html</t>
+          <t>/aktualnosci/news%2C762255%2Cdo-8-grudnia-ma-byc-przedluzony-zakazu-lotow-miedzynarodowych-do-dziewieciu</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746719%2Czus-wskazuje-na-bledy-we-wnioskach-firm-o-tarcze-50.html</t>
+          <t>/aktualnosci/news%2C762253%2Cmuller-referendum-w-sprawie-prawa-do-aborcji-nie-mialoby-mocy-wiazacej-nie</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746719%2Czus-wskazuje-na-bledy-we-wnioskach-firm-o-tarcze-50.html</t>
+          <t>/aktualnosci/news%2C762253%2Cmuller-referendum-w-sprawie-prawa-do-aborcji-nie-mialoby-mocy-wiazacej-nie</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746712%2Cminister-mariusz-kaminski-otrzymal-ujemny-wynik-testu-na-covid-19.html</t>
+          <t>/aktualnosci/news%2C762235%2Ckukiz-nikogo-nie-zamierzam-trzymac-sie-sila.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746712%2Cminister-mariusz-kaminski-otrzymal-ujemny-wynik-testu-na-covid-19.html</t>
+          <t>/aktualnosci/news%2C762235%2Ckukiz-nikogo-nie-zamierzam-trzymac-sie-sila.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746681%2Cprezes-biomaxima-covid-goracy-temat-na-swiecie-trzeba-sie-z-wlasnym-wyrobem</t>
+          <t>/aktualnosci/news%2C762231%2Cpremier-powolal-pelnomocnika-do-spraw-rozwoju-sektora-biotechnologii.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746681%2Cprezes-biomaxima-covid-goracy-temat-na-swiecie-trzeba-sie-z-wlasnym-wyrobem</t>
+          <t>/aktualnosci/news%2C762231%2Cpremier-powolal-pelnomocnika-do-spraw-rozwoju-sektora-biotechnologii.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746491%2Cczlonek-lewicy-razem-ktory-bral-udzial-w-sparodiowaniu-pochodu-ze-zwlokami</t>
+          <t>/aktualnosci/news%2C762196%2Cfotoreporterka-zostalam-zaatakowana-przez-policjanta-nie-przyznaje-sie-do</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746491%2Cczlonek-lewicy-razem-ktory-bral-udzial-w-sparodiowaniu-pochodu-ze-zwlokami</t>
+          <t>/aktualnosci/news%2C762196%2Cfotoreporterka-zostalam-zaatakowana-przez-policjanta-nie-przyznaje-sie-do</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746405%2Cbiedron-zapowiada-debate-i-rezolucje-w-sprawie-sytuacji-kobiet-w-polsce-na</t>
+          <t>/aktualnosci/news%2C762266%2Clotnisko-incheon-z-seulu-doradca-strategicznym-centralnego-portu</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746405%2Cbiedron-zapowiada-debate-i-rezolucje-w-sprawie-sytuacji-kobiet-w-polsce-na</t>
+          <t>/aktualnosci/news%2C762266%2Clotnisko-incheon-z-seulu-doradca-strategicznym-centralnego-portu</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746214%2Cotylosc-wazny-czynnik-ryzyka-ciezkiego-przebiegu-covid-19.html</t>
+          <t>/aktualnosci/news%2C762305%2Cparlament-europejski-zatwierdzil-europejski-model-pozwow-zbiorowych</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746214%2Cotylosc-wazny-czynnik-ryzyka-ciezkiego-przebiegu-covid-19.html</t>
+          <t>/aktualnosci/news%2C762305%2Cparlament-europejski-zatwierdzil-europejski-model-pozwow-zbiorowych</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746580%2C1-listopada-cmentarze-beda-zamkniete-premier-wyda-oswiadczenie-w-piatek</t>
+          <t>/aktualnosci/news%2C762282%2Cgowin-stoki-narciarskie-beda-zima-otwarte.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746580%2C1-listopada-cmentarze-beda-zamkniete-premier-wyda-oswiadczenie-w-piatek</t>
+          <t>/aktualnosci/news%2C762282%2Cgowin-stoki-narciarskie-beda-zima-otwarte.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746507%2Capel-konfederacji-zajmijmy-sie-ratowaniem-gospodarki-i-sluzby-zdrowia.html</t>
+          <t>/aktualnosci/news%2C762174%2Cbezzalogowy-statek-kosmiczny-polecial-przywiezc-probki-z-ksiezyca.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746507%2Capel-konfederacji-zajmijmy-sie-ratowaniem-gospodarki-i-sluzby-zdrowia.html</t>
+          <t>/aktualnosci/news%2C762174%2Cbezzalogowy-statek-kosmiczny-polecial-przywiezc-probki-z-ksiezyca.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746232%2Cder-spiegel-uwaza-ze-na-zwyciestwie-bidena-skorzystaja-producenci-marihuany</t>
+          <t>/aktualnosci/news%2C762183%2Cmateusz-rudyk-z-koronawirusem-sobie-poradzilem-czas-na-hiszpanie.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746232%2Cder-spiegel-uwaza-ze-na-zwyciestwie-bidena-skorzystaja-producenci-marihuany</t>
+          <t>/aktualnosci/news%2C762183%2Cmateusz-rudyk-z-koronawirusem-sobie-poradzilem-czas-na-hiszpanie.html</t>
         </is>
       </c>
     </row>
@@ -955,14 +947,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746588%2Cmorawiecki-protesty-sa-zagrozeniem-dla-zycia-seniorow.html</t>
+          <t>/aktualnosci/news%2C762209%2Cfogiel-o-zatrzymaniu-fotoreporterki-dziennikarze-nie-sa-poza-prawem.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746588%2Cmorawiecki-protesty-sa-zagrozeniem-dla-zycia-seniorow.html</t>
+          <t>/aktualnosci/news%2C762209%2Cfogiel-o-zatrzymaniu-fotoreporterki-dziennikarze-nie-sa-poza-prawem.html</t>
         </is>
       </c>
     </row>
@@ -976,14 +968,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746559%2Cszef-gabinetu-prezydenta-skomentowal-slowa-lukaszenki-o-sfalszowaniu</t>
+          <t>/aktualnosci/news%2C762203%2Cpanstwowa-komisja-do-spraw-pedofilii-od-wtorku-przyjmuje-wnioski-o-badanie</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746559%2Cszef-gabinetu-prezydenta-skomentowal-slowa-lukaszenki-o-sfalszowaniu</t>
+          <t>/aktualnosci/news%2C762203%2Cpanstwowa-komisja-do-spraw-pedofilii-od-wtorku-przyjmuje-wnioski-o-badanie</t>
         </is>
       </c>
     </row>
@@ -997,35 +989,35 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746476%2Cklub-koalicji-obywatelskiej-zlozy-wniosek-o-wotum-nieufnosci-dla</t>
+          <t>/aktualnosci/news%2C762204%2Crau-polexit-jest-absolutnym-absurdem-weto-uprawniony-element-negocjacji-w</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746476%2Cklub-koalicji-obywatelskiej-zlozy-wniosek-o-wotum-nieufnosci-dla</t>
+          <t>/aktualnosci/news%2C762204%2Crau-polexit-jest-absolutnym-absurdem-weto-uprawniony-element-negocjacji-w</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>/list-of-articles/48</t>
+          <t>/list-of-articles/50</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746451%2Clukaszenka-andrzej-duda-sfalszowal-wyniki-wyborow-w-polsce.html</t>
+          <t>/aktualnosci/news%2C762195%2Ctrzy-potencjalne-leki-na-covid-19.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746451%2Clukaszenka-andrzej-duda-sfalszowal-wyniki-wyborow-w-polsce.html</t>
+          <t>/aktualnosci/news%2C762195%2Ctrzy-potencjalne-leki-na-covid-19.html</t>
         </is>
       </c>
     </row>
@@ -1039,56 +1031,56 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746453%2Cprof-ptaszynski-widac-ze-jestesmy-wszyscy-coraz-bardziej-zmeczeni-epidemia</t>
+          <t>/aktualnosci/news%2C762181%2Cczarny-stasiu-i-pseudokibice-z-psychofans-maja-zasiasc-na-lawie-oskarzonych</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746453%2Cprof-ptaszynski-widac-ze-jestesmy-wszyscy-coraz-bardziej-zmeczeni-epidemia</t>
+          <t>/aktualnosci/news%2C762181%2Cczarny-stasiu-i-pseudokibice-z-psychofans-maja-zasiasc-na-lawie-oskarzonych</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>/list-of-articles/50</t>
+          <t>/list-of-articles/43</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746436%2Czolnierze-pomagaja-w-262-szpitalach-w-srode-pobrali-ponad-15-tys-wymazow</t>
+          <t>/aktualnosci/news%2C762184%2Csiedmioosobowa-rodzina-zakazona-izolacja-w-siedmiu-pokojach.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746436%2Czolnierze-pomagaja-w-262-szpitalach-w-srode-pobrali-ponad-15-tys-wymazow</t>
+          <t>/aktualnosci/news%2C762184%2Csiedmioosobowa-rodzina-zakazona-izolacja-w-siedmiu-pokojach.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>/list-of-articles/43</t>
+          <t>/list-of-articles/48</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746399%2Crzecznik-rzadu-w-sprawie-doniesien-dotyczacych-zmiany-na-stanowisku</t>
+          <t>/aktualnosci/news%2C762180%2Cekspertka-liczba-swiadczen-dla-poradni-srodowiskowych-nierealna-do</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746399%2Crzecznik-rzadu-w-sprawie-doniesien-dotyczacych-zmiany-na-stanowisku</t>
+          <t>/aktualnosci/news%2C762180%2Cekspertka-liczba-swiadczen-dla-poradni-srodowiskowych-nierealna-do</t>
         </is>
       </c>
     </row>
@@ -1102,21 +1094,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746389%2Cbezwzgledna-izolacja-spoleczna-szansa-na-powstrzymanie-rozprzestrzeniania</t>
+          <t>/aktualnosci/news%2C762172%2Cinstruktorzy-narciarstwa-swieta-i-ferie-zimowe-zapewniaja-nam-90-procent</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746389%2Cbezwzgledna-izolacja-spoleczna-szansa-na-powstrzymanie-rozprzestrzeniania</t>
+          <t>/aktualnosci/news%2C762172%2Cinstruktorzy-narciarstwa-swieta-i-ferie-zimowe-zapewniaja-nam-90-procent</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>/list-of-articles/50</t>
+          <t>/list-of-articles/43</t>
         </is>
       </c>
     </row>
@@ -1130,35 +1122,35 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746366%2Cpadly-kolejne-rekordy-20-tys-156-nowych-zakazen-koronawirusem-i-301-zgonow</t>
+          <t>/aktualnosci/news%2C761589%2C2-149-osob-zakazonych-koronawirusem-jest-podlaczonych-do-respiratorow.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C745593%2C18-tys-820-nowych-zakazen-koronawirusem-i-236-zgonow.html</t>
+          <t>/aktualnosci/news%2C761193%2Cbranza-hotelarska-oczekuje-konkretnej-i-natychmiastowej-pomocy.html</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C744775%2Cnajwiecej-zakazen-od-poczatku-pandemii-16-tys-300-nowych-nowych-przypadkow</t>
+          <t>/aktualnosci/news%2C761177%2Cministerstwo-zdrowia-ponad-18-tysiecy-nowych-zakazen-koronawirusem-zmarlo</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C743183%2C13-tys-628-nowych-zakazen-koronawirusem-i-179-zmarlych-najwiecej-zgonow-od</t>
+          <t>/aktualnosci/news%2C760099%2Cblisko-23-tysiace-nowych-zakazen-koronawirusem-zmarlo-626-osob.html</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C743093%2Cdzis-swiatowy-dzien-walki-z-otyloscia-choroba-cywilizacyjna-poglebiana</t>
+          <t>/aktualnosci/news%2C759345%2Ckoornawirus-zmarlo-637-osob-najwiecej-od-poczatku-epidemii-ponad-23-tys</t>
         </is>
       </c>
     </row>
@@ -1179,84 +1171,84 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746333%2Catak-nozownika-w-nicei-dwie-ofiary-smiertelne.html</t>
+          <t>/aktualnosci/news%2C762321%2Cprzemyt-papierosow-w-ladunku-tafli-szkla.html</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746333%2Catak-nozownika-w-nicei-dwie-ofiary-smiertelne.html</t>
+          <t>/aktualnosci/news%2C762321%2Cprzemyt-papierosow-w-ladunku-tafli-szkla.html</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C746333%2Catak-nozownika-w-nicei-dwie-ofiary-smiertelne.html</t>
+          <t>/aktualnosci/news%2C762321%2Cprzemyt-papierosow-w-ladunku-tafli-szkla.html</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C745581%2Cmanifestacja-przed-sejmem-przeciwnikow-zaostrzenia-prawa-aborcyjnego</t>
+          <t>/aktualnosci/news%2C761999%2Cprzedmioty-z-warsztatu-artysty-kowala-trafily-do-kuzni-wodnej.html</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C745581%2Cmanifestacja-przed-sejmem-przeciwnikow-zaostrzenia-prawa-aborcyjnego</t>
+          <t>/aktualnosci/news%2C761999%2Cprzedmioty-z-warsztatu-artysty-kowala-trafily-do-kuzni-wodnej.html</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C745581%2Cmanifestacja-przed-sejmem-przeciwnikow-zaostrzenia-prawa-aborcyjnego</t>
+          <t>/aktualnosci/news%2C761999%2Cprzedmioty-z-warsztatu-artysty-kowala-trafily-do-kuzni-wodnej.html</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C744883%2Cawantura-w-sejmie-protest-poslanek-opozycji-galeria-zdjec.html</t>
+          <t>/aktualnosci/news%2C761945%2Cprotest-przed-ministerstwem-edukacji-narodowej-w-ramach-akcji-wolna-aborcja</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C744883%2Cawantura-w-sejmie-protest-poslanek-opozycji-galeria-zdjec.html</t>
+          <t>/aktualnosci/news%2C761945%2Cprotest-przed-ministerstwem-edukacji-narodowej-w-ramach-akcji-wolna-aborcja</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C744883%2Cawantura-w-sejmie-protest-poslanek-opozycji-galeria-zdjec.html</t>
+          <t>/aktualnosci/news%2C761945%2Cprotest-przed-ministerstwem-edukacji-narodowej-w-ramach-akcji-wolna-aborcja</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C744421%2Cw-warszawie-i-w-innych-miastach-w-polsce-protesty-zwiazane-z-orzeczeniem</t>
+          <t>/aktualnosci/news%2C761505%2Cal-marmoom-dune-run-2020-pieciokilometrowy-wyscig-przez-wydmy-na-pustyni-w</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C744421%2Cw-warszawie-i-w-innych-miastach-w-polsce-protesty-zwiazane-z-orzeczeniem</t>
+          <t>/aktualnosci/news%2C761505%2Cal-marmoom-dune-run-2020-pieciokilometrowy-wyscig-przez-wydmy-na-pustyni-w</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>/aktualnosci/news%2C744421%2Cw-warszawie-i-w-innych-miastach-w-polsce-protesty-zwiazane-z-orzeczeniem</t>
+          <t>/aktualnosci/news%2C761505%2Cal-marmoom-dune-run-2020-pieciokilometrowy-wyscig-przez-wydmy-na-pustyni-w</t>
         </is>
       </c>
     </row>
@@ -1270,105 +1262,105 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://zdrowie.pap.pl/genetyka/milosc-epigenetyka-rodzinny-dom-co-wplywa-na-jak-kochamy</t>
+          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84796%2Cegipt-odkryto-ok-100-sarkofagow-sprzed-ponad-2500-lat-i-ok-40-zloconych</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://zdrowie.pap.pl/genetyka/milosc-epigenetyka-rodzinny-dom-co-wplywa-na-jak-kochamy</t>
+          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84796%2Cegipt-odkryto-ok-100-sarkofagow-sprzed-ponad-2500-lat-i-ok-40-zloconych</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://zdrowie.pap.pl/genetyka/milosc-epigenetyka-rodzinny-dom-co-wplywa-na-jak-kochamy</t>
+          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84796%2Cegipt-odkryto-ok-100-sarkofagow-sprzed-ponad-2500-lat-i-ok-40-zloconych</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84378%2Cprzytyc-lub-schudnac-dzieki-wechowi.html</t>
+          <t>https://dzieje.pl/wiadomosci/20-lat-temu-sejm-rp-uchwalil-ustawe-o-repatriacji</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84378%2Cprzytyc-lub-schudnac-dzieki-wechowi.html</t>
+          <t>https://dzieje.pl/wiadomosci/20-lat-temu-sejm-rp-uchwalil-ustawe-o-repatriacji</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84378%2Cprzytyc-lub-schudnac-dzieki-wechowi.html</t>
+          <t>https://dzieje.pl/wiadomosci/20-lat-temu-sejm-rp-uchwalil-ustawe-o-repatriacji</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://zdrowie.pap.pl/srodowisko/tatuaze-czy-moga-szkodzic-zdrowiu</t>
+          <t>https://zdrowie.pap.pl/byc-zdrowym/osocze-dla-chorych-na-covid-19-co-przyszly-dawca-musi-wiedziec</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://zdrowie.pap.pl/srodowisko/tatuaze-czy-moga-szkodzic-zdrowiu</t>
+          <t>https://zdrowie.pap.pl/byc-zdrowym/osocze-dla-chorych-na-covid-19-co-przyszly-dawca-musi-wiedziec</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://zdrowie.pap.pl/srodowisko/tatuaze-czy-moga-szkodzic-zdrowiu</t>
+          <t>https://zdrowie.pap.pl/byc-zdrowym/osocze-dla-chorych-na-covid-19-co-przyszly-dawca-musi-wiedziec</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84416%2Cnaukowcy-mrowki-dezynfekuja-zwloki-swoich-siostr-przed-ich-zjedzeniem.html</t>
+          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84686%2Cekspert-wraz-pandemia-mamy-infodemie-wiadomosci-nt-covid-19-niektore-moga</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84416%2Cnaukowcy-mrowki-dezynfekuja-zwloki-swoich-siostr-przed-ich-zjedzeniem.html</t>
+          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84686%2Cekspert-wraz-pandemia-mamy-infodemie-wiadomosci-nt-covid-19-niektore-moga</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84416%2Cnaukowcy-mrowki-dezynfekuja-zwloki-swoich-siostr-przed-ich-zjedzeniem.html</t>
+          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84686%2Cekspert-wraz-pandemia-mamy-infodemie-wiadomosci-nt-covid-19-niektore-moga</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://zdrowie.pap.pl/blog/byc-zdrowym/witamina-c-skuteczniejsza-niz-maseczki</t>
+          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84667%2Cpsycholog-pandemia-dla-wielu-osob-bedzie-doswiadczeniem-traumatycznym.html</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://zdrowie.pap.pl/blog/byc-zdrowym/witamina-c-skuteczniejsza-niz-maseczki</t>
+          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84667%2Cpsycholog-pandemia-dla-wielu-osob-bedzie-doswiadczeniem-traumatycznym.html</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://zdrowie.pap.pl/blog/byc-zdrowym/witamina-c-skuteczniejsza-niz-maseczki</t>
+          <t>https://naukawpolsce.pap.pl/aktualnosci/news%2C84667%2Cpsycholog-pandemia-dla-wielu-osob-bedzie-doswiadczeniem-traumatycznym.html</t>
         </is>
       </c>
     </row>
@@ -1382,105 +1374,105 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>/mediaroom/746673%2Candersen-global-zwieksza-swoj-zasieg-w-saint-kitts-i-nevis.html</t>
+          <t>/mediaroom/762314%2Cpiotr-gozdek-pomiary-pem-wyjscie-naprzeciw-oczekiwaniom-spolecznym.html</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>/mediaroom/746673%2Candersen-global-zwieksza-swoj-zasieg-w-saint-kitts-i-nevis.html</t>
+          <t>/mediaroom/762314%2Cpiotr-gozdek-pomiary-pem-wyjscie-naprzeciw-oczekiwaniom-spolecznym.html</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>/mediaroom/746673%2Candersen-global-zwieksza-swoj-zasieg-w-saint-kitts-i-nevis.html</t>
+          <t>/mediaroom/762314%2Cpiotr-gozdek-pomiary-pem-wyjscie-naprzeciw-oczekiwaniom-spolecznym.html</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>/mediaroom/746680%2Cprzedsiebiorstwo-jego-istota-i-najwazniejsze-pojecia.html</t>
+          <t>/mediaroom/762220%2Ckrytyczny-stan-finansow-gmin-uzdrowiskowych.html</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>/mediaroom/746680%2Cprzedsiebiorstwo-jego-istota-i-najwazniejsze-pojecia.html</t>
+          <t>/mediaroom/762220%2Ckrytyczny-stan-finansow-gmin-uzdrowiskowych.html</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>/mediaroom/746680%2Cprzedsiebiorstwo-jego-istota-i-najwazniejsze-pojecia.html</t>
+          <t>/mediaroom/762220%2Ckrytyczny-stan-finansow-gmin-uzdrowiskowych.html</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>/mediaroom/746650%2Cpgm-automotive-razem-z-paih-aktywnie-w-afryce.html</t>
+          <t>/mediaroom/761907%2Cshanghai-electric-i-siemens-energy-powolaja-centrum-wsparcia-inteligentnej-energii</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>/mediaroom/746650%2Cpgm-automotive-razem-z-paih-aktywnie-w-afryce.html</t>
+          <t>/mediaroom/761907%2Cshanghai-electric-i-siemens-energy-powolaja-centrum-wsparcia-inteligentnej-energii</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>/mediaroom/746650%2Cpgm-automotive-razem-z-paih-aktywnie-w-afryce.html</t>
+          <t>/mediaroom/761907%2Cshanghai-electric-i-siemens-energy-powolaja-centrum-wsparcia-inteligentnej-energii</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>/mediaroom/746599%2C192-absolwentow-iii-edycji-prasowej-akademii-pieniadza.html</t>
+          <t>/mediaroom/761891%2Cpolska-straz-graniczna-wybrala-jeepa-wranglera.html</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>/mediaroom/746599%2C192-absolwentow-iii-edycji-prasowej-akademii-pieniadza.html</t>
+          <t>/mediaroom/761891%2Cpolska-straz-graniczna-wybrala-jeepa-wranglera.html</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>/mediaroom/746599%2C192-absolwentow-iii-edycji-prasowej-akademii-pieniadza.html</t>
+          <t>/mediaroom/761891%2Cpolska-straz-graniczna-wybrala-jeepa-wranglera.html</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>/mediaroom/746546%2Cfirmowe-floty-coraz-bardziej-przyjazne-srodowisku-i-mlodsze.html</t>
+          <t>/mediaroom/761775%2Ccztery-nagrody-alfa-romeo-giulia-zwyciezyla-w-konkursie-sport-auto-award-2020.html</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>/mediaroom/746546%2Cfirmowe-floty-coraz-bardziej-przyjazne-srodowisku-i-mlodsze.html</t>
+          <t>/mediaroom/761775%2Ccztery-nagrody-alfa-romeo-giulia-zwyciezyla-w-konkursie-sport-auto-award-2020.html</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>/mediaroom/746546%2Cfirmowe-floty-coraz-bardziej-przyjazne-srodowisku-i-mlodsze.html</t>
+          <t>/mediaroom/761775%2Ccztery-nagrody-alfa-romeo-giulia-zwyciezyla-w-konkursie-sport-auto-award-2020.html</t>
         </is>
       </c>
     </row>
@@ -1494,70 +1486,70 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://centrumprasowe.pap.pl/cp/pl/news/info/168122,36,mr-wicepremier-gowin-chce-aby-rds-wypracowala-wspolne-stanowisko-dot-unikniecia-lockdownu-(komunikat</t>
+          <t>http://centrumprasowe.pap.pl/cp/pl/news/info/169328,36,msz-konkurs-na-stanowisko-dyrektora-polskiego-instytutu-spraw-miedzynarodowych-(komunikat)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>http://centrumprasowe.pap.pl/cp/pl/news/info/168121,36,men-funkcjonowanie-przedszkoli-i-szkol-w-kraju-(komunikat)</t>
+          <t>http://centrumprasowe.pap.pl/cp/pl/news/info/169323,36,cba-kontrola-cba-w-ecotech-complex-umcs-(komunikat)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://centrumprasowe.pap.pl/cp/pl/news/info/168110,36,mr-konsultacje-kierownictwa-mrpit-z-branza-targowa-kolejne-wsparcie-przewiduje-tzw-tarcza-branzowa-(</t>
+          <t>http://centrumprasowe.pap.pl/cp/pl/news/info/169321,36,mf-kas-przechwycila-warte-4-5-mln-zl-nielegalne-papierosy-(komunikat)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://centrumprasowe.pap.pl/cp/pl/news/info/168109,36,mkidn-polskie-groby-i-nekropolie-na-swiecie-to-nasze-dziedzictwo-(komunikat)</t>
+          <t>http://centrumprasowe.pap.pl/cp/pl/news/info/169306,36,mon-wojsko-polskie-cwiczy-z-sojusznikami-(komunikat)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>http://centrumprasowe.pap.pl/cp/pl/news/info/168108,36,mkidn-cmentarz-lyczakowski-online-strona-internetowa-poswiecona-zabytkowej-nekropolii-juz-dostepna-(</t>
+          <t>http://centrumprasowe.pap.pl/cp/pl/news/info/169294,36,msz-wspieramy-polskich-seniorow-msz-dolacza-do-akcji-cyfrowywolontariusz-(komunikat)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://samorzad.pap.pl//klub-samorzadowy/czestochowa/kategoria/aktualnosci/czestochowa-sluby-w-czasie-pandemii</t>
+          <t>https://samorzad.pap.pl//klub-samorzadowy/boleslawiec/kategoria/aktualnosci/boleslawiec-xxiv-sesja-rady-miasta</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://samorzad.pap.pl//klub-samorzadowy/borzecin/kategoria/aktualnosci/borzecin-rekordowe-zawody-biegowe</t>
+          <t>https://samorzad.pap.pl//klub-samorzadowy/strzegom/kategoria/aktualnosci/strzegom-prace-w-jaroszowie-na-finiszu</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://samorzad.pap.pl//klub-samorzadowy/boleslawiec/kategoria/aktualnosci/boleslawiec-obowiazkowa-segregacja-smieci-stawka</t>
+          <t>https://samorzad.pap.pl//klub-samorzadowy/legnica/kategoria/aktualnosci/legnica-wez-udzial-w-konsultacjach-spolecznych-0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://samorzad.pap.pl//klub-samorzadowy/jarocin/kategoria/aktualnosci/pleszew-ozonuja-bo-chca-pomagac</t>
+          <t>https://samorzad.pap.pl//klub-samorzadowy/stalowa-wola/kategoria/aktualnosci/stalowa-wola-zrownowazony-oszczedny-i</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://samorzad.pap.pl//klub-samorzadowy/legnica/kategoria/aktualnosci/legnica-rewitalizacja-fontann-w-parku-miejskim</t>
+          <t>https://samorzad.pap.pl//klub-samorzadowy/czestochowa/kategoria/aktualnosci/czestochowa-przyszlosc-elektromobilnosci-w</t>
         </is>
       </c>
     </row>
@@ -1571,35 +1563,35 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>/pap-technologie/746662%2Cfirma-z-debicy-stworzyla-system-do-nauki-zeglowania-w-vr.html</t>
+          <t>/pap-technologie/762258%2Chorala-lotnisko-incheon-z-seulu-doradca-strategicznym-centralnego-portu</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>/pap-technologie/746585%2Cniemiecki-urzad-antymonopolowy-wszczal-dochodzenie-ws-amazona.html</t>
+          <t>/pap-technologie/762217%2Cchinski-bezzalogowy-statek-kosmiczny-polecial-przywiezc-probki-z-ksiezyca</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>/pap-technologie/746558%2Craport-perspektywiczna-alternatywa-dla-paliw-konwencjonalnych-jest-wodor</t>
+          <t>/pap-technologie/762158%2Cczestochowa-ma-strategie-rozwoju-elektromobilnosci.html</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>/pap-technologie/746490%2Cprojekt-w-gminach-stana-punkty-do-pomiaru-pola-elektromagnetycznego.html</t>
+          <t>/pap-technologie/761855%2Ckomisja-europejska-przekaze-szpitalom-200-robotow-do-dezynfekcji.html</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>/pap-technologie/746457%2Cszpitale-w-usa-na-celowniku-rosyjskich-hakerow-atakujacych-dla-okupu.html</t>
+          <t>/pap-technologie/761795%2Cklub-pilkarski-manchester-united-zaatakowany-przez-hakerow.html</t>
         </is>
       </c>
     </row>
